--- a/Quiz/QuizSampledata.xlsx
+++ b/Quiz/QuizSampledata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Loc\Studing\MentorShip\19-10-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Loc\DotNetIntern\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D5386D-D6F0-454A-B470-38861FD717AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFDC47-3F91-4AFB-945E-8E39E502CB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{81E6C456-CAD6-4257-BFA2-05EAF2B69658}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Quiz</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>TopicId</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -90,21 +84,12 @@
     <t>QuizId</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>QuestionId</t>
   </si>
   <si>
-    <t>AnswerContent</t>
-  </si>
-  <si>
     <t>AnswerOption</t>
   </si>
   <si>
@@ -135,12 +120,6 @@
     <t>loc@gmail.com</t>
   </si>
   <si>
-    <t>QuestionOption</t>
-  </si>
-  <si>
-    <t>OptionName</t>
-  </si>
-  <si>
     <t>UserQuiz</t>
   </si>
   <si>
@@ -162,31 +141,73 @@
     <t>Quiz2</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
     <t>IsCorrect</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>OptionId</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>UserAnswer</t>
+  </si>
+  <si>
+    <t>Category/Topic</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>LevelName</t>
+  </si>
+  <si>
+    <t>LevelId</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>Fill in the Blanks</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>OptionText</t>
+  </si>
+  <si>
+    <t>AnswerOptionId</t>
+  </si>
+  <si>
+    <t>HasMultipleAnswers</t>
+  </si>
+  <si>
+    <t>Add the correct data type for the following variables</t>
+  </si>
+  <si>
+    <t>2.C#</t>
+  </si>
+  <si>
+    <t>1.SQL</t>
+  </si>
+  <si>
+    <t>3.Fill in the Blanks</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>char</t>
   </si>
 </sst>
 </file>
@@ -288,8 +309,88 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FBBFF6D-8DF9-4508-9118-E51F82DE5FDB}" name="Table2" displayName="Table2" ref="A10:F13" totalsRowShown="0">
-  <autoFilter ref="A10:F13" xr:uid="{2FBBFF6D-8DF9-4508-9118-E51F82DE5FDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{22A93C97-B947-4AEA-9FFD-6BC4C2C41E1A}" name="Table3" displayName="Table3" ref="E3:G5" totalsRowShown="0">
+  <autoFilter ref="E3:G5" xr:uid="{22A93C97-B947-4AEA-9FFD-6BC4C2C41E1A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{401D64CE-D355-4342-B77E-988C8BBD019F}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{5A8F5171-58E3-4F6A-B388-1F45BC9C3376}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{8FACA66D-1526-4D58-B07D-E7D5A15EA74B}" name="Email" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0414A34-CE52-436C-A90E-3CE4E555759A}" name="Table4" displayName="Table4" ref="A17:I19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A17:I19" xr:uid="{A0414A34-CE52-436C-A90E-3CE4E555759A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7D3B44F6-27D7-48EB-B594-DD884AAF5231}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{EEAF7AF1-8B48-4198-80A4-468F5FC20DF0}" name="QuizName"/>
+    <tableColumn id="3" xr3:uid="{F51966B7-5D40-4055-9339-4B8F6AF0A490}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{31F46D18-B193-47A4-B84E-42B4C2153028}" name="CreatedDate"/>
+    <tableColumn id="5" xr3:uid="{F220A375-E5CE-4EA3-89D1-EBB377A9D0D6}" name="Duration"/>
+    <tableColumn id="6" xr3:uid="{2A435E0D-CBC5-492E-BA43-16515CAD18D6}" name="TotalMarks"/>
+    <tableColumn id="8" xr3:uid="{7A2B6F7D-16F6-4200-B738-9F3124E81BB8}" name="CategoryId"/>
+    <tableColumn id="9" xr3:uid="{D8E8B6E4-0A0F-420B-8FBD-03A4AA6E8261}" name="UserId"/>
+    <tableColumn id="7" xr3:uid="{494993B3-E999-4CC3-80C6-559B7BDC4EBA}" name="LevelId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1071671F-1EB8-4ED4-B88E-08F467D7291C}" name="Table5" displayName="Table5" ref="A25:E27" totalsRowShown="0">
+  <autoFilter ref="A25:E27" xr:uid="{1071671F-1EB8-4ED4-B88E-08F467D7291C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CBD708F9-4BE1-4B13-BD88-F125CFA3F242}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{37610CD0-A2CF-4AF7-9151-A5A1FBF23774}" name="QuizId"/>
+    <tableColumn id="7" xr3:uid="{CAA32195-C362-4DA8-BE7C-AB8024A2BB79}" name="QuestionTypeId"/>
+    <tableColumn id="4" xr3:uid="{37FF52D0-8676-4F8E-849A-C25DAEAE28D1}" name="Content"/>
+    <tableColumn id="5" xr3:uid="{A073C854-D72B-4B4C-B8F6-182E48C2CC2C}" name="HasMultipleAnswers"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F09EA931-A613-41A7-9FC2-975736B9B299}" name="Table6" displayName="Table6" ref="E10:F14" totalsRowShown="0">
+  <autoFilter ref="E10:F14" xr:uid="{F09EA931-A613-41A7-9FC2-975736B9B299}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0F754E2E-AE21-47B2-9D6E-8467885122B1}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{CD666E96-137B-435D-B017-6A9EA0BADA7B}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D439193-6964-44F1-BA0C-9465298E9010}" name="Table7" displayName="Table7" ref="A32:E37" totalsRowShown="0">
+  <autoFilter ref="A32:E37" xr:uid="{9D439193-6964-44F1-BA0C-9465298E9010}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{79F4F8E3-E338-41CF-9C80-B19810EEC852}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{A711F503-0604-4702-8248-9D88DE9710E9}" name="QuestionId"/>
+    <tableColumn id="3" xr3:uid="{EFD872A9-F46E-48DF-8D40-2AA3A20FF0AD}" name="OptionText"/>
+    <tableColumn id="5" xr3:uid="{7B75B73E-3DF8-46FB-8EC8-40E14D2A9E5E}" name="Position"/>
+    <tableColumn id="4" xr3:uid="{3F6F1E70-0C2A-45A3-ACF3-B1696450F961}" name="IsCorrect"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2E719F29-5464-4807-BE27-B13F8A480A09}" name="Table9" displayName="Table9" ref="A10:B14" totalsRowShown="0">
+  <autoFilter ref="A10:B14" xr:uid="{2E719F29-5464-4807-BE27-B13F8A480A09}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6026DE3B-AB8F-48C3-A478-14576FDAA0DE}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{C118B397-C500-48C2-86F5-7A9F71CDD55B}" name="LevelName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FBBFF6D-8DF9-4508-9118-E51F82DE5FDB}" name="Table2" displayName="Table2" ref="A56:F59" totalsRowShown="0">
+  <autoFilter ref="A56:F59" xr:uid="{2FBBFF6D-8DF9-4508-9118-E51F82DE5FDB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B10E2475-2908-4EC1-B9F8-8E523F014B3C}" name="Id"/>
     <tableColumn id="2" xr3:uid="{BD7431CD-C0C8-4B6C-B169-F496FB364768}" name="QuizId"/>
@@ -302,81 +403,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{22A93C97-B947-4AEA-9FFD-6BC4C2C41E1A}" name="Table3" displayName="Table3" ref="E3:G5" totalsRowShown="0">
-  <autoFilter ref="E3:G5" xr:uid="{22A93C97-B947-4AEA-9FFD-6BC4C2C41E1A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{401D64CE-D355-4342-B77E-988C8BBD019F}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{5A8F5171-58E3-4F6A-B388-1F45BC9C3376}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{8FACA66D-1526-4D58-B07D-E7D5A15EA74B}" name="Email" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0414A34-CE52-436C-A90E-3CE4E555759A}" name="Table4" displayName="Table4" ref="A16:I18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A16:I18" xr:uid="{A0414A34-CE52-436C-A90E-3CE4E555759A}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7D3B44F6-27D7-48EB-B594-DD884AAF5231}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{EEAF7AF1-8B48-4198-80A4-468F5FC20DF0}" name="QuizName"/>
-    <tableColumn id="3" xr3:uid="{F51966B7-5D40-4055-9339-4B8F6AF0A490}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{31F46D18-B193-47A4-B84E-42B4C2153028}" name="CreatedDate"/>
-    <tableColumn id="5" xr3:uid="{F220A375-E5CE-4EA3-89D1-EBB377A9D0D6}" name="Duration"/>
-    <tableColumn id="6" xr3:uid="{2A435E0D-CBC5-492E-BA43-16515CAD18D6}" name="TotalMarks"/>
-    <tableColumn id="7" xr3:uid="{614C77B0-359A-41FE-AF60-6593160EAD21}" name="Level"/>
-    <tableColumn id="8" xr3:uid="{7A2B6F7D-16F6-4200-B738-9F3124E81BB8}" name="TopicId"/>
-    <tableColumn id="9" xr3:uid="{D8E8B6E4-0A0F-420B-8FBD-03A4AA6E8261}" name="UserId"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1071671F-1EB8-4ED4-B88E-08F467D7291C}" name="Table5" displayName="Table5" ref="A24:F26" totalsRowShown="0">
-  <autoFilter ref="A24:F26" xr:uid="{1071671F-1EB8-4ED4-B88E-08F467D7291C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CBD708F9-4BE1-4B13-BD88-F125CFA3F242}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{37610CD0-A2CF-4AF7-9151-A5A1FBF23774}" name="QuizId"/>
-    <tableColumn id="3" xr3:uid="{292C5E84-559D-49B9-B192-B26A5B03155F}" name="Title"/>
-    <tableColumn id="4" xr3:uid="{37FF52D0-8676-4F8E-849A-C25DAEAE28D1}" name="Content"/>
-    <tableColumn id="5" xr3:uid="{A073C854-D72B-4B4C-B8F6-182E48C2CC2C}" name="Point"/>
-    <tableColumn id="6" xr3:uid="{5014263E-6C1E-4897-9DD6-1A91CC536103}" name="QuestionTypeId"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F09EA931-A613-41A7-9FC2-975736B9B299}" name="Table6" displayName="Table6" ref="J24:K26" totalsRowShown="0">
-  <autoFilter ref="J24:K26" xr:uid="{F09EA931-A613-41A7-9FC2-975736B9B299}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0F754E2E-AE21-47B2-9D6E-8467885122B1}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{CD666E96-137B-435D-B017-6A9EA0BADA7B}" name="Name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D439193-6964-44F1-BA0C-9465298E9010}" name="Table7" displayName="Table7" ref="F32:I35" totalsRowShown="0">
-  <autoFilter ref="F32:I35" xr:uid="{9D439193-6964-44F1-BA0C-9465298E9010}"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{05CCC99D-9B62-41C9-9C71-08D6CF1E3563}" name="Table11" displayName="Table11" ref="A48:D49" totalsRowShown="0">
+  <autoFilter ref="A48:D49" xr:uid="{05CCC99D-9B62-41C9-9C71-08D6CF1E3563}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{79F4F8E3-E338-41CF-9C80-B19810EEC852}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{A711F503-0604-4702-8248-9D88DE9710E9}" name="QuestionId"/>
-    <tableColumn id="3" xr3:uid="{EFD872A9-F46E-48DF-8D40-2AA3A20FF0AD}" name="OptionId"/>
-    <tableColumn id="4" xr3:uid="{3F6F1E70-0C2A-45A3-ACF3-B1696450F961}" name="IsCorrect"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1B646A80-8A6D-416C-A0A2-94CBE6934802}" name="Table8" displayName="Table8" ref="A32:B36" totalsRowShown="0">
-  <autoFilter ref="A32:B36" xr:uid="{1B646A80-8A6D-416C-A0A2-94CBE6934802}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2C618811-1749-4603-969A-49CF0E19D09E}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{FD272EDF-2BC0-49CB-BF02-0FC84B6C9FB9}" name="OptionName"/>
+    <tableColumn id="1" xr3:uid="{5E425463-57B5-4B50-A068-D69917C57D8F}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{DAB46E3F-CD18-4350-B005-BDC24369E89C}" name="QuestionId"/>
+    <tableColumn id="3" xr3:uid="{BB222D02-DC53-46EA-9E65-C5B16F96F62D}" name="AnswerOptionId"/>
+    <tableColumn id="4" xr3:uid="{13794591-373E-4456-8AD5-9B238B1689B5}" name="UserId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,19 +713,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE60E7B-DA06-4BC6-AFA7-4D0145FAFA6C}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.46484375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="14.9296875" customWidth="1"/>
     <col min="7" max="7" width="16.46484375" customWidth="1"/>
     <col min="8" max="8" width="10.06640625" customWidth="1"/>
@@ -700,436 +734,463 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.9" customHeight="1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" t="b">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1199,7 @@
     <hyperlink ref="G5" r:id="rId2" xr:uid="{75E64AE1-7455-4029-8D10-D4DC720C5A58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -1147,6 +1208,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>